--- a/Consumer/Moncler.xlsx
+++ b/Consumer/Moncler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBFA26-5D8B-7040-BC3E-6F09374FBDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D03053-75BF-3A4B-AF9F-386699A9BAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,9 +2303,9 @@
     <v>Powered by Refinitiv</v>
     <v>69.14</v>
     <v>35</v>
-    <v>0.77959999999999996</v>
-    <v>0.68</v>
-    <v>1.0752999999999999E-2</v>
+    <v>0.78239999999999998</v>
+    <v>1.32</v>
+    <v>2.0152999999999997E-2</v>
     <v>EUR</v>
     <v>Moncler SpA is an Italy-based company engaged in fashion industry. The Company designs, produces and distributes clothing and accessories through Moncler brand. Moncler SpA manufactures collections for women, men and children. The Company offers mainly sportswear, outerwear, knitwear and skiwear, including jackets, shoes, sweaters, trousers, bags, shirts, tops, gloves, hats and sunglasses, among others. Moncler SpA trades its products through approximately 122 stores, as well as through the wholesale distribution channel. Moncler SpA operates in approximately 66 countries, including Austria, France, Germany, Switzerland, Turkey, China, Hong Kong, Japan, Taiwan and the United States, among others.</v>
     <v>6310</v>
@@ -2313,24 +2313,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Venezia, 1, TREBASELEGHE, PADOVA, 35010 IT</v>
-    <v>64.22</v>
+    <v>67.14</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45068.305914351855</v>
+    <v>45093.461377314816</v>
     <v>0</v>
-    <v>63.7</v>
-    <v>17675040000</v>
+    <v>65.239999999999995</v>
+    <v>17988110000</v>
     <v>Moncler SpA</v>
     <v>Moncler SpA</v>
-    <v>63.96</v>
-    <v>28.528400000000001</v>
-    <v>63.24</v>
-    <v>63.92</v>
+    <v>65.239999999999995</v>
+    <v>29.0337</v>
+    <v>65.5</v>
+    <v>66.819999999999993</v>
     <v>274627700</v>
     <v>MONC</v>
     <v>Moncler SpA (XMIL:MONC)</v>
-    <v>49923</v>
-    <v>541880</v>
+    <v>344180</v>
+    <v>580490</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2900,10 +2900,10 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T93" sqref="T93"/>
+      <selection pane="bottomRight" activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3847,15 +3847,15 @@
       </c>
       <c r="U16" s="30">
         <f>V101/N3</f>
-        <v>6.7905443564653138</v>
+        <v>6.9108222014760514</v>
       </c>
       <c r="V16" s="30">
         <f>V101/N28</f>
-        <v>29.133224657448448</v>
+        <v>29.64924830681543</v>
       </c>
       <c r="W16" s="31">
         <f>V101/N106</f>
-        <v>35.87209066333282</v>
+        <v>36.507476802428947</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="V95" s="38" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>0.77959999999999996</v>
+        <v>0.78239999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="V97" s="36">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>7.451178E-2</v>
+        <v>7.4632320000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="V100" s="34">
         <f>V99/V103</f>
-        <v>4.9106299130629583E-2</v>
+        <v>4.8292913629618163E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="V101" s="39" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>17675040000</v>
+        <v>17988110000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="V102" s="34">
         <f>V101/V103</f>
-        <v>0.95089370086937042</v>
+        <v>0.95170708637038182</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="V103" s="40">
         <f>V99+V101</f>
-        <v>18587819000</v>
+        <v>18900889000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="V105" s="26">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>7.2000265937782915E-2</v>
+        <v>7.2156584854150219E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
       <c r="R107" s="42"/>
       <c r="S107" s="45">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>18256590527.531654</v>
+        <v>18196071928.556515</v>
       </c>
       <c r="T107" s="46" t="s">
         <v>148</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="S108" s="45">
         <f>S107+S106</f>
-        <v>19093726732.323067</v>
+        <v>19033208133.347927</v>
       </c>
       <c r="T108" s="46" t="s">
         <v>144</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="V108" s="50">
         <f>V105</f>
-        <v>7.2000265937782915E-2</v>
+        <v>7.2156584854150219E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="P110" s="39">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>15647923277.363922</v>
+        <v>15594575606.374172</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="P113" s="39">
         <f>P110+P111-P112</f>
-        <v>15617398277.363922</v>
+        <v>15564050606.374172</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="P115" s="54">
         <f>P113/P114</f>
-        <v>55.00509699073833</v>
+        <v>54.817204374765645</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="P116" s="55" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>63.92</v>
+        <v>66.819999999999993</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="P117" s="57">
         <f>P115/P116-1</f>
-        <v>-0.13946969664051423</v>
+        <v>-0.17962878816573402</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Moncler.xlsx
+++ b/Consumer/Moncler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D03053-75BF-3A4B-AF9F-386699A9BAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A3585-5168-B642-9986-0925ADC72BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,9 +2303,9 @@
     <v>Powered by Refinitiv</v>
     <v>69.14</v>
     <v>35</v>
-    <v>0.78239999999999998</v>
-    <v>1.32</v>
-    <v>2.0152999999999997E-2</v>
+    <v>0.78029999999999999</v>
+    <v>-1.08</v>
+    <v>-1.7003000000000001E-2</v>
     <v>EUR</v>
     <v>Moncler SpA is an Italy-based company engaged in fashion industry. The Company designs, produces and distributes clothing and accessories through Moncler brand. Moncler SpA manufactures collections for women, men and children. The Company offers mainly sportswear, outerwear, knitwear and skiwear, including jackets, shoes, sweaters, trousers, bags, shirts, tops, gloves, hats and sunglasses, among others. Moncler SpA trades its products through approximately 122 stores, as well as through the wholesale distribution channel. Moncler SpA operates in approximately 66 countries, including Austria, France, Germany, Switzerland, Turkey, China, Hong Kong, Japan, Taiwan and the United States, among others.</v>
     <v>6310</v>
@@ -2313,24 +2313,24 @@
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Venezia, 1, TREBASELEGHE, PADOVA, 35010 IT</v>
-    <v>67.14</v>
+    <v>63.38</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45093.461377314816</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>65.239999999999995</v>
-    <v>17988110000</v>
+    <v>62.1</v>
+    <v>17444350000</v>
     <v>Moncler SpA</v>
     <v>Moncler SpA</v>
-    <v>65.239999999999995</v>
-    <v>29.0337</v>
-    <v>65.5</v>
-    <v>66.819999999999993</v>
+    <v>63.38</v>
+    <v>28.155999999999999</v>
+    <v>63.52</v>
+    <v>62.44</v>
     <v>274627700</v>
     <v>MONC</v>
     <v>Moncler SpA (XMIL:MONC)</v>
-    <v>344180</v>
-    <v>580490</v>
+    <v>488817</v>
+    <v>585410</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2903,7 +2903,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M116" sqref="M116"/>
+      <selection pane="bottomRight" activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3847,15 +3847,15 @@
       </c>
       <c r="U16" s="30">
         <f>V101/N3</f>
-        <v>6.9108222014760514</v>
+        <v>6.7019159472739913</v>
       </c>
       <c r="V16" s="30">
         <f>V101/N28</f>
-        <v>29.64924830681543</v>
+        <v>28.752985427651694</v>
       </c>
       <c r="W16" s="31">
         <f>V101/N106</f>
-        <v>36.507476802428947</v>
+        <v>35.403897516662475</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="V95" s="38" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>0.78239999999999998</v>
+        <v>0.78029999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="V97" s="36">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>7.4632320000000002E-2</v>
+        <v>7.4541915000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="V100" s="34">
         <f>V99/V103</f>
-        <v>4.8292913629618163E-2</v>
+        <v>4.9723407184206203E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="V101" s="39" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>17988110000</v>
+        <v>17444350000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="V102" s="34">
         <f>V101/V103</f>
-        <v>0.95170708637038182</v>
+        <v>0.9502765928157938</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="V103" s="40">
         <f>V99+V101</f>
-        <v>18900889000</v>
+        <v>18357129000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="V105" s="26">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>7.2156584854150219E-2</v>
+        <v>7.1997340878436081E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
       <c r="R107" s="42"/>
       <c r="S107" s="45">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>18196071928.556515</v>
+        <v>18257726796.302731</v>
       </c>
       <c r="T107" s="46" t="s">
         <v>148</v>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="S108" s="45">
         <f>S107+S106</f>
-        <v>19033208133.347927</v>
+        <v>19094863001.094143</v>
       </c>
       <c r="T108" s="46" t="s">
         <v>144</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="V108" s="50">
         <f>V105</f>
-        <v>7.2156584854150219E-2</v>
+        <v>7.1997340878436081E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="P110" s="39">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>15594575606.374172</v>
+        <v>15648924916.472315</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="P113" s="39">
         <f>P110+P111-P112</f>
-        <v>15564050606.374172</v>
+        <v>15618399916.472315</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="P115" s="54">
         <f>P113/P114</f>
-        <v>54.817204374765645</v>
+        <v>55.008624803459007</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="P116" s="55" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>66.819999999999993</v>
+        <v>62.44</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="P117" s="57">
         <f>P115/P116-1</f>
-        <v>-0.17962878816573402</v>
+        <v>-0.11901625875305877</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Moncler.xlsx
+++ b/Consumer/Moncler.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A3585-5168-B642-9986-0925ADC72BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AA6F46-F52A-0144-8F75-BD78D13443AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="860" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -681,7 +710,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +752,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +865,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +879,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,102 +926,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,8 +1067,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MONC.MI</a:t>
+              <a:t>Moncler</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1121,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9031404958677687E-2"/>
-          <c:y val="0.13193722198583488"/>
-          <c:w val="0.85014214876033056"/>
-          <c:h val="0.71801863715709702"/>
+          <c:x val="9.3152317880794686E-2"/>
+          <c:y val="0.15717830389223097"/>
+          <c:w val="0.83002649006622509"/>
+          <c:h val="0.61624458924182723"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1178,6 +1163,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$N$3</c:f>
@@ -1228,7 +1261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2DA-AF4E-BBB2-D07B9F1ED9A8}"/>
+              <c16:uniqueId val="{00000000-D805-884F-BC45-2179588D3B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1237,11 +1270,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1279,57 +1312,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$N$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>96921000</c:v>
+                  <c:v>49701000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116518000</c:v>
+                  <c:v>55032000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105490000</c:v>
+                  <c:v>28844000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164387000</c:v>
+                  <c:v>76072000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234155000</c:v>
+                  <c:v>130338000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>292858000</c:v>
+                  <c:v>167863000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338236000</c:v>
+                  <c:v>196601000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>384787000</c:v>
+                  <c:v>249688000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>469885000</c:v>
+                  <c:v>332395000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>663596000</c:v>
+                  <c:v>358685000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>569518000</c:v>
+                  <c:v>300351000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>827448000</c:v>
+                  <c:v>393533000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1038521000</c:v>
+                  <c:v>606697000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2DA-AF4E-BBB2-D07B9F1ED9A8}"/>
+              <c16:uniqueId val="{00000001-D805-884F-BC45-2179588D3B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,11 +1419,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1380,9 +1461,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$N$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1430,7 +1559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2DA-AF4E-BBB2-D07B9F1ED9A8}"/>
+              <c16:uniqueId val="{00000002-D805-884F-BC45-2179588D3B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,11 +1573,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="540832240"/>
-        <c:axId val="118116624"/>
+        <c:axId val="1565048976"/>
+        <c:axId val="2099470864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540832240"/>
+        <c:axId val="1565048976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1605,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1488,7 +1617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118116624"/>
+        <c:crossAx val="2099470864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118116624"/>
+        <c:axId val="2099470864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540832240"/>
+        <c:crossAx val="1565048976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,10 +1691,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34979537970976771"/>
-          <c:y val="0.91301838110008415"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="5.4863850376719932E-2"/>
+          <c:x val="0.34417458413724772"/>
+          <c:y val="0.88362372732163941"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.5359925102377911E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2145,22 +2274,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30CCBC5-4C89-FA84-FCA5-7467D6D47F9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFFECD6-B197-2D28-F48D-844ED591F8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,6 +2308,62 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0119999999999996E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2302,35 +2487,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>69.14</v>
-    <v>35</v>
-    <v>0.78029999999999999</v>
-    <v>-1.08</v>
-    <v>-1.7003000000000001E-2</v>
+    <v>40.17</v>
+    <v>0.81230000000000002</v>
+    <v>0.26</v>
+    <v>4.0600000000000002E-3</v>
     <v>EUR</v>
     <v>Moncler SpA is an Italy-based company engaged in fashion industry. The Company designs, produces and distributes clothing and accessories through Moncler brand. Moncler SpA manufactures collections for women, men and children. The Company offers mainly sportswear, outerwear, knitwear and skiwear, including jackets, shoes, sweaters, trousers, bags, shirts, tops, gloves, hats and sunglasses, among others. Moncler SpA trades its products through approximately 122 stores, as well as through the wholesale distribution channel. Moncler SpA operates in approximately 66 countries, including Austria, France, Germany, Switzerland, Turkey, China, Hong Kong, Japan, Taiwan and the United States, among others.</v>
-    <v>6310</v>
+    <v>6440</v>
     <v>Borsa Italiana</v>
     <v>XMIL</v>
     <v>XMIL</v>
     <v>Via Venezia, 1, TREBASELEGHE, PADOVA, 35010 IT</v>
-    <v>63.38</v>
+    <v>64.56</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45100.666666666664</v>
+    <v>45149.327824074076</v>
     <v>0</v>
-    <v>62.1</v>
-    <v>17444350000</v>
+    <v>63.56</v>
+    <v>16977480000</v>
     <v>Moncler SpA</v>
     <v>Moncler SpA</v>
-    <v>63.38</v>
-    <v>28.155999999999999</v>
-    <v>63.52</v>
-    <v>62.44</v>
+    <v>63.82</v>
+    <v>31.8734</v>
+    <v>64.040000000000006</v>
+    <v>64.3</v>
     <v>274627700</v>
     <v>MONC</v>
     <v>Moncler SpA (XMIL:MONC)</v>
-    <v>488817</v>
-    <v>585410</v>
+    <v>36169</v>
+    <v>627010</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2900,10 +3085,10 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M112" sqref="M112"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2956,19 +3141,19 @@
       <c r="N1" s="8">
         <v>2022</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="23">
         <v>2023</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="23">
         <v>2024</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2025</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2026</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -2977,52 +3162,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -3074,106 +3259,106 @@
       <c r="N3" s="1">
         <v>2602890000</v>
       </c>
-      <c r="O3" s="28">
-        <v>3005000000</v>
-      </c>
-      <c r="P3" s="28">
-        <v>3340000000</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>3673000000</v>
-      </c>
-      <c r="R3" s="28">
-        <v>4016000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>4418000000</v>
+      <c r="O3" s="24">
+        <v>3024000000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>3376000000</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>3726000000</v>
+      </c>
+      <c r="R3" s="24">
+        <v>4035000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>4449000000</v>
       </c>
       <c r="T3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="32">
         <f>(C3/B3)-1</f>
         <v>0.19739791431963494</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="32">
         <f>(D3/C3)-1</f>
         <v>0.21509494238006566</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="32">
         <f>(E3/D3)-1</f>
         <v>-6.9268948004604147E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="32">
         <f t="shared" ref="F4:S4" si="0">(F3/E3)-1</f>
         <v>0.1956880827177101</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="32">
         <f t="shared" si="0"/>
         <v>0.26823242661580626</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="32">
         <f t="shared" si="0"/>
         <v>0.18164387949472571</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="32">
         <f t="shared" si="0"/>
         <v>0.14744917625594645</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="32">
         <f t="shared" si="0"/>
         <v>0.18963662683546345</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="32">
         <f t="shared" si="0"/>
         <v>0.14621069042880874</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="32">
         <f t="shared" si="0"/>
         <v>-0.11506699006699006</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="32">
         <f t="shared" si="0"/>
         <v>0.42050139925535035</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="32">
         <f t="shared" si="0"/>
         <v>0.27212070946575029</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15448597520448426</v>
+        <v>0.16178555374987025</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11148086522462552</v>
+        <v>0.11640211640211651</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>9.9700598802395124E-2</v>
+        <v>0.10367298578199047</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>9.338415464198202E-2</v>
+        <v>8.2930756843800246E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10009960159362552</v>
+        <v>0.10260223048327144</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3188,7 +3373,7 @@
         <v>0.229759379485723</v>
       </c>
       <c r="W4" s="17">
-        <f>(N105+M105+L105)/3</f>
+        <f>(N106+M106+L106)/3</f>
         <v>0.22790260486586214</v>
       </c>
     </row>
@@ -3280,16 +3465,16 @@
         <v>1987843000</v>
       </c>
       <c r="T6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="W6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3348,7 +3533,7 @@
         <v>0.2331</v>
       </c>
       <c r="W7" s="20">
-        <f>N106/N3</f>
+        <f>N107/N3</f>
         <v>0.189298817852464</v>
       </c>
     </row>
@@ -3398,7 +3583,7 @@
     </row>
     <row r="9" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3453,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3613,21 +3798,21 @@
         <v>1213296000</v>
       </c>
       <c r="T12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="W12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3712,16 +3897,16 @@
         <v>56269000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>23485000</v>
@@ -3739,7 +3924,7 @@
         <v>473200000</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -3786,16 +3971,16 @@
         <v>1213296000</v>
       </c>
       <c r="T15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="V15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3841,24 +4026,24 @@
       <c r="N16" s="1">
         <v>1828343000</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="25">
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>1.1117866437479751E-2</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="38">
         <f>V101/N3</f>
-        <v>6.7019159472739913</v>
-      </c>
-      <c r="V16" s="30">
+        <v>6.5225499348800753</v>
+      </c>
+      <c r="V16" s="38">
         <f>V101/N28</f>
-        <v>28.752985427651694</v>
-      </c>
-      <c r="W16" s="31">
-        <f>V101/N106</f>
-        <v>35.403897516662475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>27.983457969958646</v>
+      </c>
+      <c r="W16" s="39">
+        <f>V101/N107</f>
+        <v>34.456369082894277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +4087,7 @@
         <v>26273000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3946,10 +4131,19 @@
         <v>263974000</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3992,14 +4186,41 @@
       <c r="N19" s="10">
         <v>1038521000</v>
       </c>
-      <c r="T19" s="32">
+      <c r="O19" s="33">
+        <v>1245000000</v>
+      </c>
+      <c r="P19" s="33">
+        <v>1374000000</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>1517000000</v>
+      </c>
+      <c r="R19" s="33">
+        <v>1635000000</v>
+      </c>
+      <c r="S19" s="33">
+        <v>1789000000</v>
+      </c>
+      <c r="T19" s="26">
         <f>N40-N56-N61</f>
         <v>-30525000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="38">
+        <f>V101/O3</f>
+        <v>5.6142460317460321</v>
+      </c>
+      <c r="V19" s="38">
+        <f>V101/O28</f>
+        <v>26.867352429181832</v>
+      </c>
+      <c r="W19" s="39">
+        <f>V101/O105</f>
+        <v>23.213384806174602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4015,7 +4236,7 @@
         <v>0.55831832401175463</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:N20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:S20" si="3">(F19/E19)-1</f>
         <v>0.42441312269218368</v>
       </c>
       <c r="G20" s="15">
@@ -4050,8 +4271,31 @@
         <f t="shared" si="3"/>
         <v>0.25508914155330609</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="O20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19882024532965636</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10361445783132539</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10407569141193584</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.7785102175346177E-2</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.4189602446483223E-2</v>
+      </c>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4094,8 +4338,34 @@
       <c r="N21" s="2">
         <v>0.39900000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="O21" s="34">
+        <f>O19/O3</f>
+        <v>0.41170634920634919</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" ref="P21:S21" si="4">P19/P3</f>
+        <v>0.40699052132701424</v>
+      </c>
+      <c r="Q21" s="34">
+        <f t="shared" si="4"/>
+        <v>0.40713902308105204</v>
+      </c>
+      <c r="R21" s="34">
+        <f t="shared" si="4"/>
+        <v>0.40520446096654272</v>
+      </c>
+      <c r="S21" s="34">
+        <f t="shared" si="4"/>
+        <v>0.40211283434479661</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4138,8 +4408,16 @@
       <c r="N22" s="10">
         <v>774547000</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="V22" s="40">
+        <f>(-1*N98)/V101</f>
+        <v>9.4807945584385912E-3</v>
+      </c>
+      <c r="W22" s="41">
+        <f>N107/V101</f>
+        <v>2.9022210598981711E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4461,7 @@
         <v>0.29759999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4505,7 @@
         <v>-27216000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4271,7 +4549,7 @@
         <v>747331000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4315,7 +4593,7 @@
         <v>0.28710000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4359,7 +4637,7 @@
         <v>140625000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4402,10 +4680,25 @@
       <c r="N28" s="11">
         <v>606697000</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="35">
+        <v>631900000</v>
+      </c>
+      <c r="P28" s="35">
+        <v>714000000</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>794000000</v>
+      </c>
+      <c r="R28" s="35">
+        <v>742000000</v>
+      </c>
+      <c r="S28" s="35">
+        <v>808000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4421,43 +4714,63 @@
         <v>1.6373595895160173</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:S29" si="5">(F28/E28)-1</f>
         <v>0.713350510043117</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28790529239362272</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1711991326260105</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27002405888067704</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33124138925378865</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.909264579792108E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16263295091793639</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31024368155924242</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54166740781586298</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.1541329526930237E-2</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12992562114258588</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11204481792717091</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>-6.5491183879093251E-2</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>8.8948787061994716E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4500,8 +4813,28 @@
       <c r="N30" s="2">
         <v>0.2331</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="O30" s="36">
+        <f>O28/O3</f>
+        <v>0.20896164021164021</v>
+      </c>
+      <c r="P30" s="36">
+        <f t="shared" ref="P30:S30" si="6">P28/P3</f>
+        <v>0.21149289099526067</v>
+      </c>
+      <c r="Q30" s="36">
+        <f t="shared" si="6"/>
+        <v>0.21309715512614064</v>
+      </c>
+      <c r="R30" s="36">
+        <f t="shared" si="6"/>
+        <v>0.18389095415117721</v>
+      </c>
+      <c r="S30" s="36">
+        <f t="shared" si="6"/>
+        <v>0.18161384580804676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4544,8 +4877,23 @@
       <c r="N31" s="12">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="O31" s="37">
+        <v>2.34</v>
+      </c>
+      <c r="P31" s="37">
+        <v>2.64</v>
+      </c>
+      <c r="Q31" s="37">
+        <v>2.94</v>
+      </c>
+      <c r="R31" s="37">
+        <v>2.75</v>
+      </c>
+      <c r="S31" s="37">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +5027,7 @@
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4687,47 +5035,47 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:N35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4451600000000001E-4</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.863031059991336E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0835473984704238E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.1094940961935184E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.9321614413584048E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7766130654522793E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1038231480505805E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2816143178992594E-2</v>
       </c>
     </row>
@@ -4736,43 +5084,43 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -4780,43 +5128,43 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4868,22 +5216,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>3019000</v>
@@ -4895,16 +5243,16 @@
         <v>259000</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4956,25 +5304,25 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1">
         <v>121000000</v>
@@ -4983,16 +5331,16 @@
         <v>155000000</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M41" s="1">
         <v>234000000</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5071,16 +5419,16 @@
         <v>182732000</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M43" s="1">
         <v>267717000</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5308,43 +5656,43 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1">
         <v>-214000</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5484,43 +5832,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5704,43 +6052,43 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6056,43 +6404,43 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6232,43 +6580,43 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6408,43 +6756,43 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -6452,43 +6800,43 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6584,43 +6932,43 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6628,31 +6976,31 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1">
         <v>29147000</v>
@@ -6669,58 +7017,58 @@
     </row>
     <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:N80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:N80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7906818438733332E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1470984977183565E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3895683648379382E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4185386243752138E-2</v>
       </c>
     </row>
@@ -6773,43 +7121,43 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -6855,89 +7203,89 @@
       <c r="N83" s="1">
         <v>-120225000</v>
       </c>
-      <c r="U83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="V83" s="62"/>
+      <c r="U83" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="V83" s="68"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="V84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="U84" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="V84" s="69"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>19602000</v>
@@ -6951,10 +7299,10 @@
       <c r="N85" s="1">
         <v>53190000</v>
       </c>
-      <c r="U85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="V85" s="24">
+      <c r="U85" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="V85" s="43">
         <f>N17</f>
         <v>26273000</v>
       </c>
@@ -7002,10 +7350,10 @@
       <c r="N86" s="1">
         <v>-178934000</v>
       </c>
-      <c r="U86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="V86" s="24">
+      <c r="U86" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="V86" s="43">
         <f>N56</f>
         <v>194070000</v>
       </c>
@@ -7053,10 +7401,10 @@
       <c r="N87" s="10">
         <v>662577000</v>
       </c>
-      <c r="U87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="V87" s="24">
+      <c r="U87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="V87" s="43">
         <f>N61</f>
         <v>718709000</v>
       </c>
@@ -7104,74 +7452,74 @@
       <c r="N88" s="1">
         <v>-169853000</v>
       </c>
-      <c r="U88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="V88" s="34">
+      <c r="U88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="V88" s="45">
         <f>V85/(V86+V87)</f>
         <v>2.8783528104831511E-2</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:N89" si="9">(-1*B88)/B3</f>
+        <v>5.8117756272551911E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.4722808767268445E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6464652941874296E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.9158388981995498E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.2337648680690703E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.6848634643846558E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0848150216617915E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.1555460985302887E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4705782938072248E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.597204405715044E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4260220534584273E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.4428819077045479E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.5255542877340186E-2</v>
+      </c>
+      <c r="U89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:N89" si="7">(-1*B88)/B3</f>
-        <v>5.8117756272551911E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4722808767268445E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6464652941874296E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9158388981995498E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.2337648680690703E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6848634643846558E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0848150216617915E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1555460985302887E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4705782938072248E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.597204405715044E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4260220534584273E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.4428819077045479E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.5255542877340186E-2</v>
-      </c>
-      <c r="U89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="V89" s="24">
+      <c r="V89" s="43">
         <f>N27</f>
         <v>140625000</v>
       </c>
@@ -7181,48 +7529,48 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1">
         <v>-496728000</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="U90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="24">
+      <c r="V90" s="43">
         <f>N25</f>
         <v>747331000</v>
       </c>
@@ -7232,48 +7580,48 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="V91" s="34">
+        <v>91</v>
+      </c>
+      <c r="U91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="V91" s="45">
         <f>V89/V90</f>
         <v>0.18816963300063827</v>
       </c>
@@ -7283,53 +7631,53 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V92" s="36">
+        <v>91</v>
+      </c>
+      <c r="U92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="V92" s="45">
         <f>V88*(1-V91)</f>
         <v>2.3367342184881807E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -7372,10 +7720,10 @@
       <c r="N93" s="1">
         <v>2754000</v>
       </c>
-      <c r="U93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="V93" s="66"/>
+      <c r="U93" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="V93" s="69"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7420,11 +7768,12 @@
       <c r="N94" s="10">
         <v>-167099000</v>
       </c>
-      <c r="U94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="V94" s="37">
-        <v>4.095E-2</v>
+      <c r="U94" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="V94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7459,10 +7808,10 @@
         <v>-2198000</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1">
         <v>-32643000</v>
@@ -7470,12 +7819,12 @@
       <c r="N95" s="1">
         <v>-11803000</v>
       </c>
-      <c r="U95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="V95" s="38" cm="1">
+      <c r="U95" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="V95" s="47" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>0.78029999999999999</v>
+        <v>0.81230000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7483,19 +7832,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>1269000</v>
@@ -7516,15 +7865,15 @@
         <v>1116000</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="V96" s="37">
+        <v>91</v>
+      </c>
+      <c r="U96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="V96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7533,22 +7882,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-12801000</v>
@@ -7563,7 +7912,7 @@
         <v>-15102000</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-721000</v>
@@ -7571,15 +7920,15 @@
       <c r="N97" s="1">
         <v>-48352000</v>
       </c>
-      <c r="U97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="V97" s="36">
+      <c r="U97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="V97" s="45">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>7.4541915000000014E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>7.5763724000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -7590,10 +7939,10 @@
         <v>-150000000</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-25000000</v>
@@ -7614,7 +7963,7 @@
         <v>-100850000</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-120679000</v>
@@ -7622,10 +7971,10 @@
       <c r="N98" s="1">
         <v>-160960000</v>
       </c>
-      <c r="U98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="V98" s="66"/>
+      <c r="U98" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="V98" s="69"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7670,10 +8019,10 @@
       <c r="N99" s="1">
         <v>-170138000</v>
       </c>
-      <c r="U99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="V99" s="24">
+      <c r="U99" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="V99" s="43">
         <f>V86+V87</f>
         <v>912779000</v>
       </c>
@@ -7721,12 +8070,12 @@
       <c r="N100" s="10">
         <v>-391253000</v>
       </c>
-      <c r="U100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="V100" s="34">
+      <c r="U100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="V100" s="45">
         <f>V99/V103</f>
-        <v>4.9723407184206203E-2</v>
+        <v>5.1021005341510148E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7734,19 +8083,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1">
         <v>-3790000</v>
@@ -7772,12 +8121,12 @@
       <c r="N101" s="1">
         <v>-24686000</v>
       </c>
-      <c r="U101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="V101" s="39" cm="1">
+      <c r="U101" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="V101" s="49" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>17444350000</v>
+        <v>16977480000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7823,12 +8172,12 @@
       <c r="N102" s="10">
         <v>79539000</v>
       </c>
-      <c r="U102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="V102" s="34">
+      <c r="U102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="V102" s="45">
         <f>V101/V103</f>
-        <v>0.9502765928157938</v>
+        <v>0.94897899465848989</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7874,12 +8223,15 @@
       <c r="N103" s="1">
         <v>802715000</v>
       </c>
-      <c r="U103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="V103" s="40">
+      <c r="T103" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="U103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="V103" s="50">
         <f>V99+V101</f>
-        <v>18357129000</v>
+        <v>17890259000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7925,302 +8277,379 @@
       <c r="N104" s="11">
         <v>882254000</v>
       </c>
-      <c r="U104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="V104" s="64"/>
+      <c r="O104" s="65">
+        <f>(O106/N107)-1</f>
+        <v>0.74357246653298814</v>
+      </c>
+      <c r="P104" s="65">
+        <f>(P106/O106)-1</f>
+        <v>0.10231637760446977</v>
+      </c>
+      <c r="Q104" s="65">
+        <f>(Q106/P106)-1</f>
+        <v>0.10770855332629359</v>
+      </c>
+      <c r="R104" s="65">
+        <f>(R106/Q106)-1</f>
+        <v>5.9103908484270828E-2</v>
+      </c>
+      <c r="S104" s="65">
+        <f>(S106/R106)-1</f>
+        <v>9.0909090909090828E-2</v>
+      </c>
+      <c r="T104" s="65">
+        <f>SUM(O104:S104)/5</f>
+        <v>0.22072207937142263</v>
+      </c>
+      <c r="U104" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="V104" s="69"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:M105" si="10">(B22*(1-$V$91))+B77+B88+B81</f>
+        <v>49499875.20523034</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>53160392.305417553</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>44116873.614235193</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>109325351.2539959</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>96257164.536196142</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>187578421.35278746</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>264705061.79457295</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>278681300.01164144</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>313125105.42048973</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>429987362.65991902</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>351292087.78707159</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>741092385.17337036</v>
+      </c>
+      <c r="N105" s="1">
+        <f>(N22*(1-$V$91))+N77+N88+N81</f>
+        <v>656829775.26825464</v>
+      </c>
+      <c r="O105" s="27">
+        <f>N105*(1+$V$106)</f>
+        <v>731365983.10661292</v>
+      </c>
+      <c r="P105" s="27">
+        <f t="shared" ref="P105:S105" si="11">O105*(1+$V$106)</f>
+        <v>814360465.04902494</v>
+      </c>
+      <c r="Q105" s="27">
+        <f t="shared" si="11"/>
+        <v>906773055.28741074</v>
+      </c>
+      <c r="R105" s="27">
+        <f t="shared" si="11"/>
+        <v>1009672508.7775061</v>
+      </c>
+      <c r="S105" s="27">
+        <f t="shared" si="11"/>
+        <v>1124248861.4286647</v>
+      </c>
+      <c r="T105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="U105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+      <c r="V105" s="52">
+        <f>(V100*V92)+(V102*V97)</f>
+        <v>7.3090407923535064E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:N106" si="12">(C107/B107)-1</f>
         <v>-0.45205958270595825</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
         <v>1.9230089798321801</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
         <v>-5.8756379264034431E-2</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
         <v>0.63157237640008557</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
         <v>0.24870188786497449</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:N105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
         <v>0.87472642913420295</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
         <v>0.12366565491477943</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
         <v>0.55400132151450543</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
         <v>0.24322091008279312</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
         <v>-0.32481743189322321</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
         <v>1.3367687303473521</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
         <v>-0.32824348385654256</v>
       </c>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="V105" s="26">
-        <f>(V100*V92)+(V102*V97)</f>
-        <v>7.1997340878436081E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="O106" s="31">
+        <v>859100000</v>
+      </c>
+      <c r="P106" s="31">
+        <v>947000000</v>
+      </c>
+      <c r="Q106" s="31">
+        <v>1049000000</v>
+      </c>
+      <c r="R106" s="31">
+        <v>1111000000</v>
+      </c>
+      <c r="S106" s="31">
+        <v>1212000000</v>
+      </c>
+      <c r="T106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="U106" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="V106" s="54">
+        <f>(SUM(O4:S4)/5)</f>
+        <v>0.11347872865220979</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
         <v>37192000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>20379000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>59568000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>56068000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>91479000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>114230000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>214150000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>240633000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>373944000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>464895000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>313889000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>733486000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>492724000</v>
       </c>
-      <c r="O106" s="41">
-        <f>N106*(1+$V$106)</f>
-        <v>547825442.72706747</v>
-      </c>
-      <c r="P106" s="41">
-        <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
-        <v>609088892.9686954</v>
-      </c>
-      <c r="Q106" s="41">
-        <f t="shared" si="9"/>
-        <v>677203449.49853265</v>
-      </c>
-      <c r="R106" s="41">
-        <f t="shared" si="9"/>
-        <v>752935273.17084408</v>
-      </c>
-      <c r="S106" s="41">
-        <f t="shared" si="9"/>
-        <v>837136204.79141092</v>
-      </c>
-      <c r="T106" s="42" t="s">
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="64">
+        <f>S106*(1+V107)/(V108-V107)</f>
+        <v>25832594349.69418</v>
+      </c>
+      <c r="T107" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="U106" s="43" t="s">
+      <c r="U107" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="V106" s="44">
-        <f>(SUM(O4:S4)/5)</f>
-        <v>0.11183023909342249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="45">
-        <f>S106*(1+V107)/(V108-V107)</f>
-        <v>18257726796.302731</v>
-      </c>
-      <c r="T107" s="46" t="s">
+      <c r="V107" s="56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O108" s="64">
+        <f t="shared" ref="O108:R108" si="13">O107+O106</f>
+        <v>859100000</v>
+      </c>
+      <c r="P108" s="64">
+        <f t="shared" si="13"/>
+        <v>947000000</v>
+      </c>
+      <c r="Q108" s="64">
+        <f t="shared" si="13"/>
+        <v>1049000000</v>
+      </c>
+      <c r="R108" s="64">
+        <f t="shared" si="13"/>
+        <v>1111000000</v>
+      </c>
+      <c r="S108" s="64">
+        <f>S107+S106</f>
+        <v>27044594349.69418</v>
+      </c>
+      <c r="T108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="U108" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="U107" s="47" t="s">
+      <c r="V108" s="54">
+        <f>V105</f>
+        <v>7.3090407923535064E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O109" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="V107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="45">
-        <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
-        <v>547825442.72706747</v>
-      </c>
-      <c r="P108" s="45">
-        <f t="shared" si="10"/>
-        <v>609088892.9686954</v>
-      </c>
-      <c r="Q108" s="45">
-        <f t="shared" si="10"/>
-        <v>677203449.49853265</v>
-      </c>
-      <c r="R108" s="45">
-        <f>R107+R106</f>
-        <v>752935273.17084408</v>
-      </c>
-      <c r="S108" s="45">
-        <f>S107+S106</f>
-        <v>19094863001.094143</v>
-      </c>
-      <c r="T108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="U108" s="49" t="s">
+      <c r="P109" s="66"/>
+    </row>
+    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O110" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="V108" s="50">
-        <f>V105</f>
-        <v>7.1997340878436081E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="59" t="s">
+      <c r="P110" s="49">
+        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
+        <v>22316106599.434383</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="O111" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="P109" s="60"/>
-    </row>
-    <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="P110" s="39">
-        <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>15648924916.472315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="P111" s="39">
+      <c r="P111" s="49">
         <f>N40</f>
         <v>882254000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="P112" s="39">
+      <c r="O112" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P112" s="49">
         <f>V99</f>
         <v>912779000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="P113" s="39">
+      <c r="O113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="P113" s="49">
         <f>P110+P111-P112</f>
-        <v>15618399916.472315</v>
+        <v>22285581599.434383</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="P114" s="52">
+      <c r="O114" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="P114" s="58">
         <f>N34*(1+(5*T16))</f>
         <v>283926383.7675544</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="53" t="s">
+      <c r="O115" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="P115" s="60">
+        <f>P113/P114</f>
+        <v>78.490703483474789</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O116" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P116" s="61" cm="1">
+        <f t="array" ref="P116">_FV(A1,"Price")</f>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O117" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="P115" s="54">
-        <f>P113/P114</f>
-        <v>55.008624803459007</v>
-      </c>
-    </row>
-    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="51" t="s">
+      <c r="P117" s="62">
+        <f>P115/P116-1</f>
+        <v>0.22069523302449134</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O118" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="P116" s="55" cm="1">
-        <f t="array" ref="P116">_FV(A1,"Price")</f>
-        <v>62.44</v>
-      </c>
-    </row>
-    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="P117" s="57">
-        <f>P115/P116-1</f>
-        <v>-0.11901625875305877</v>
-      </c>
-    </row>
-    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="P118" s="58" t="str">
+      <c r="P118" s="63" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -8261,8 +8690,9 @@
     <hyperlink ref="N36" r:id="rId26" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="N74" r:id="rId27" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="O1" r:id="rId28" display="https://finbox.com/BIT:MONC/explorer/revenue_proj" xr:uid="{FDBB7735-0B3D-174F-9893-5EB500EB1896}"/>
+    <hyperlink ref="T106" r:id="rId29" xr:uid="{309FAD62-7D23-6C4B-8BCF-A4BA939B033B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>